--- a/inst/extdata/databaseDescription.xlsx
+++ b/inst/extdata/databaseDescription.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Open-FVS\rFVS\shinyFVSOnlineDev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\FVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7645C0CF-4F5A-48DF-AD81-A276064CC212}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68A79D3-BC7B-441E-AF3E-2D30CDC564D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="42" activeTab="45" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OutputTableDescriptions" sheetId="1" r:id="rId1"/>
@@ -71,6 +71,7 @@
     <sheet name="CmpSummary_East" sheetId="51" r:id="rId56"/>
     <sheet name="CmpSummary2" sheetId="52" r:id="rId57"/>
     <sheet name="CmpSummary2_East" sheetId="53" r:id="rId58"/>
+    <sheet name="View_DWN" sheetId="61" r:id="rId59"/>
   </sheets>
   <definedNames>
     <definedName name="OLE_LINK3" localSheetId="17">FVS_Carbon!$D$5</definedName>
@@ -87,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4981" uniqueCount="1960">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5024" uniqueCount="1968">
   <si>
     <t>Table</t>
   </si>
@@ -6048,6 +6049,30 @@
   </si>
   <si>
     <t>FVS_Regen_Ingrow</t>
+  </si>
+  <si>
+    <t>Case_ID</t>
+  </si>
+  <si>
+    <t>DWD_Total_Cover</t>
+  </si>
+  <si>
+    <t>DWD_Total_Volume</t>
+  </si>
+  <si>
+    <t>Total cover of hard and soft down wood (%)</t>
+  </si>
+  <si>
+    <t>Reported in percent cover (%). The total columns estimate the total down wood cover (3” and larger) for hard and soft wood.</t>
+  </si>
+  <si>
+    <t>Total volume of soft and hard down wood (cuft/acre)</t>
+  </si>
+  <si>
+    <t>Reported in cuft/acre. The total estimates the total down wood volume for soft and hard decay class.</t>
+  </si>
+  <si>
+    <t>is a view of the total percent cover and cubic feet per acre volume of both soft and hard downed wood, pulled from the FVS_Down_Wood_Cov and FVS_Down_Wood_Vol tables</t>
   </si>
 </sst>
 </file>
@@ -6135,7 +6160,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6193,6 +6218,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel Built-in Explanatory Text" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -6509,10 +6537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK51"/>
+  <dimension ref="A1:AMK52"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6931,6 +6959,14 @@
       </c>
       <c r="B51" s="1" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>1967</v>
       </c>
     </row>
   </sheetData>
@@ -10585,7 +10621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1B47B84-FCA3-4C5C-87A1-540887727794}">
   <dimension ref="A1:XFD53"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -29636,8 +29672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:AMK18"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29912,7 +29948,7 @@
   <dimension ref="A1:AMK20"/>
   <sheetViews>
     <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B20" sqref="B20:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35021,7 +35057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -35326,8 +35362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
   <dimension ref="A1:AMK70"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -39230,7 +39266,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3100-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -40622,6 +40658,274 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10766AA6-72AD-494C-B412-4045B85131AB}">
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.88671875" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" style="20" customWidth="1"/>
+    <col min="4" max="4" width="56.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.77734375" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>798</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>799</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>815</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>1963</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>833</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>834</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>851</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>852</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
+        <v>1962</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C17" s="7"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C18" s="7"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C19" s="7"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C26" s="7"/>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMK30"/>

--- a/inst/extdata/databaseDescription.xlsx
+++ b/inst/extdata/databaseDescription.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Open-FVS\rPkgsDev\fvsOL\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DB2113-AAFD-4CFD-972E-C73511DBF627}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A832E7A-E8E4-4B52-8594-7A2CDAC9D5E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OutputTableDescriptions" sheetId="1" r:id="rId1"/>
@@ -5730,9 +5730,6 @@
     <t>contains one line for each FVS run that is included in the composite tables.</t>
   </si>
   <si>
-    <t>https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide_2020.pdf</t>
-  </si>
-  <si>
     <t>Basal Area (sq. ft/acre)</t>
   </si>
   <si>
@@ -6225,6 +6222,9 @@
   </si>
   <si>
     <t>contains a summary by species of the trees per acre, percentage of total, and average height for all trees, best trees, and small trees that regenerated during a given tally.</t>
+  </si>
+  <si>
+    <t>https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf</t>
   </si>
 </sst>
 </file>
@@ -6691,7 +6691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
@@ -6808,10 +6808,10 @@
     </row>
     <row r="14" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>1955</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>1956</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -6883,10 +6883,10 @@
     </row>
     <row r="23" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
+        <v>1943</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>1944</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>1945</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -7046,12 +7046,12 @@
         <v>68</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>69</v>
@@ -7126,7 +7126,7 @@
         <v>1808</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
     </row>
   </sheetData>
@@ -7414,7 +7414,7 @@
         <v>90</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -7787,7 +7787,7 @@
         <v>109</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
@@ -7879,7 +7879,7 @@
         <v>376</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>109</v>
@@ -7913,7 +7913,7 @@
         <v>109</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
@@ -7949,7 +7949,7 @@
         <v>386</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>124</v>
@@ -7963,7 +7963,7 @@
         <v>388</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>124</v>
@@ -8005,7 +8005,7 @@
         <v>396</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>109</v>
@@ -8258,7 +8258,7 @@
         <v>109</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -8350,7 +8350,7 @@
         <v>376</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="C22" s="21" t="s">
         <v>109</v>
@@ -8420,7 +8420,7 @@
         <v>386</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="C27" s="21" t="s">
         <v>124</v>
@@ -8434,7 +8434,7 @@
         <v>388</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="C28" s="21" t="s">
         <v>124</v>
@@ -8728,7 +8728,7 @@
         <v>109</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
@@ -8820,7 +8820,7 @@
         <v>376</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>109</v>
@@ -8868,7 +8868,7 @@
         <v>109</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -8890,7 +8890,7 @@
         <v>386</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>124</v>
@@ -8904,7 +8904,7 @@
         <v>388</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>124</v>
@@ -8946,7 +8946,7 @@
         <v>396</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>109</v>
@@ -9199,7 +9199,7 @@
         <v>109</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
@@ -9291,7 +9291,7 @@
         <v>376</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>109</v>
@@ -9339,7 +9339,7 @@
         <v>109</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -9361,7 +9361,7 @@
         <v>386</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>124</v>
@@ -9375,7 +9375,7 @@
         <v>388</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>124</v>
@@ -9417,7 +9417,7 @@
         <v>396</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>109</v>
@@ -9608,13 +9608,13 @@
         <v>418</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>1875</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>1876</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>1877</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -9622,13 +9622,13 @@
         <v>419</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>1878</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>1879</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -9636,13 +9636,13 @@
         <v>420</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>1880</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>1881</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -9650,13 +9650,13 @@
         <v>421</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>1882</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>1883</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -9730,7 +9730,7 @@
         <v>109</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9772,7 +9772,7 @@
         <v>109</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -10007,13 +10007,13 @@
         <v>418</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>1875</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>1876</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>1877</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -10021,13 +10021,13 @@
         <v>419</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>1878</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>1879</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -10035,13 +10035,13 @@
         <v>420</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>1880</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>1881</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -10049,13 +10049,13 @@
         <v>421</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>1882</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>1883</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -10143,7 +10143,7 @@
         <v>109</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -10781,8 +10781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1B47B84-FCA3-4C5C-87A1-540887727794}">
   <dimension ref="A1:XFD54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10804,7 +10804,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>1853</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -10897,7 +10897,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>1797</v>
@@ -10908,7 +10908,7 @@
         <v>22</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>1853</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -10916,7 +10916,7 @@
         <v>23</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>1853</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="17" spans="1:16384" x14ac:dyDescent="0.3">
@@ -10969,7 +10969,7 @@
     </row>
     <row r="23" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="B23" s="18" t="s">
         <v>1801</v>
@@ -27519,7 +27519,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="B44" s="18" t="s">
         <v>1806</v>
@@ -27538,7 +27538,7 @@
         <v>72</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>1853</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -27546,7 +27546,7 @@
         <v>73</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>1853</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -27554,7 +27554,7 @@
         <v>75</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>1853</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -27562,7 +27562,7 @@
         <v>77</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>1853</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -27570,7 +27570,7 @@
         <v>79</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>1853</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -27578,7 +27578,7 @@
         <v>81</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>1853</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -27586,7 +27586,7 @@
         <v>83</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>1853</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -27594,7 +27594,7 @@
         <v>1807</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>1853</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -27602,64 +27602,52 @@
         <v>1808</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>1853</v>
+        <v>2017</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{7AB3B3FA-DB21-4485-8FF0-94D82696A62C}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{FD67315F-710E-429D-AC3A-EFB0DA00A9CA}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{0F3E2B57-13BB-4C0B-AB0A-F7381F24A750}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{6383CC25-65E8-4D42-AC60-B155A27F7B8A}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{EC1C21FE-116A-4076-851E-41352AF9B3DC}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{CD80295B-3795-4B63-943D-840133CA0420}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{9E4D5A88-AB08-4735-9E18-A880F8A8708D}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{DF3EDD72-0003-4ABA-8C56-FBC37753692A}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{27E9670D-9882-44DD-ABC9-A63360AC5CFA}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{B9510326-9C39-4D06-9A0C-48F77C49A871}"/>
-    <hyperlink ref="B13" r:id="rId11" xr:uid="{1710F703-FCF8-472C-8FA7-A9AD17F07727}"/>
-    <hyperlink ref="B17" r:id="rId12" xr:uid="{5EC4CA8F-D97F-45C7-8BE0-BD278A494CDB}"/>
-    <hyperlink ref="B19" r:id="rId13" xr:uid="{4B2B86F5-EA91-4974-B56A-A7AE4CA49F90}"/>
-    <hyperlink ref="B20" r:id="rId14" xr:uid="{AFAB471B-7A69-4DAF-8949-6A91B6FFFC07}"/>
-    <hyperlink ref="B18" r:id="rId15" xr:uid="{EC5F9BC2-DE24-49D4-99A1-66790FF8F46E}"/>
-    <hyperlink ref="B21" r:id="rId16" xr:uid="{966CBB8C-2DCA-4E88-8C08-FD91CFA4CF5A}"/>
-    <hyperlink ref="B22" r:id="rId17" xr:uid="{FE12AEA1-A63F-48E8-961C-0C0D3A7680B8}"/>
-    <hyperlink ref="B24" r:id="rId18" xr:uid="{241045C4-0738-4B09-9B7B-0AD3DC3D3AEA}"/>
-    <hyperlink ref="B25" r:id="rId19" xr:uid="{9AD1ECAE-5875-48F8-9801-C085F1AEFAF6}"/>
-    <hyperlink ref="B26" r:id="rId20" xr:uid="{362AFE7D-79AA-40DC-A686-48016BC45904}"/>
-    <hyperlink ref="B27" r:id="rId21" xr:uid="{C19A4BE5-3F02-4770-ADAF-84DD7020B8E4}"/>
-    <hyperlink ref="B28" r:id="rId22" xr:uid="{D37E3734-4FFB-419A-AF79-BC8B51342916}"/>
-    <hyperlink ref="B29" r:id="rId23" xr:uid="{0AED6549-C701-4467-B2CF-D0F12936BCFA}"/>
-    <hyperlink ref="B30" r:id="rId24" xr:uid="{CBD7478E-FA69-48CC-BAB6-4DD1762834BB}"/>
-    <hyperlink ref="B31" r:id="rId25" xr:uid="{38A818A1-6A24-422D-9BA5-FD5006E36165}"/>
-    <hyperlink ref="B33" r:id="rId26" xr:uid="{E1108ECA-32E2-4C4D-8D77-D7C6F6F8B2CC}"/>
-    <hyperlink ref="B34" r:id="rId27" xr:uid="{751C0E1B-99E4-473F-8A79-2BDF7BE4D92E}"/>
-    <hyperlink ref="B35" r:id="rId28" xr:uid="{90EE99D2-FD00-4A8D-95C4-C88D5374FADB}"/>
-    <hyperlink ref="B36" r:id="rId29" xr:uid="{461D5C4F-BE00-48A0-B09F-50D971584017}"/>
-    <hyperlink ref="B37" r:id="rId30" xr:uid="{85E179D0-9627-4E94-BC24-AB71A69C4BD2}"/>
-    <hyperlink ref="B38" r:id="rId31" xr:uid="{5FEA2701-7CC0-477A-A972-7390B3A39071}"/>
-    <hyperlink ref="B39" r:id="rId32" xr:uid="{1D8A030A-02A2-4883-8176-4714B2BC9DEB}"/>
-    <hyperlink ref="B40" r:id="rId33" xr:uid="{0C79D643-E011-4053-8C54-7D6E60A04471}"/>
-    <hyperlink ref="B41" r:id="rId34" xr:uid="{38FDC458-9EC3-492C-BBBA-8F4DAEC13C85}"/>
-    <hyperlink ref="B42" r:id="rId35" xr:uid="{7AC6C4FD-5AE1-4C9D-9E8F-7D69628B469D}"/>
-    <hyperlink ref="B43" r:id="rId36" xr:uid="{9D356455-1C91-485E-9CC7-3D8E5D7554A5}"/>
-    <hyperlink ref="B44" r:id="rId37" xr:uid="{189B0F9F-2F20-44F9-A7F7-81494AB2D9E4}"/>
-    <hyperlink ref="B45" r:id="rId38" xr:uid="{6BBB86E0-F72B-4740-BE1D-D1B5F4E16E45}"/>
-    <hyperlink ref="B32" r:id="rId39" xr:uid="{46745855-CDC8-40D6-9BCB-5F89CA72C370}"/>
-    <hyperlink ref="B15" r:id="rId40" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{A98E5611-4E92-4F20-9FB2-76FD64B947F4}"/>
-    <hyperlink ref="B16" r:id="rId41" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{1A2CF046-74D2-4C9C-A284-8595C354829E}"/>
-    <hyperlink ref="B46" r:id="rId42" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{8993B95C-A6A7-4D84-A33B-CBDA33E96DC8}"/>
-    <hyperlink ref="B47" r:id="rId43" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{8033814E-8AE1-4DB9-AD90-41BDFD44F710}"/>
-    <hyperlink ref="B48" r:id="rId44" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{1EECDFFA-6163-462D-B730-9709DA44E032}"/>
-    <hyperlink ref="B49" r:id="rId45" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{B9709C33-4C81-49DC-8010-29CF038C2BDB}"/>
-    <hyperlink ref="B50" r:id="rId46" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{B3F46F6A-FAE0-4518-9EBD-610F8846F0FA}"/>
-    <hyperlink ref="B51" r:id="rId47" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{A8BDFBF6-7676-4861-BB8D-9F54AFBEFC2E}"/>
-    <hyperlink ref="B52" r:id="rId48" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{AA8B3B75-E22E-4541-B8D6-882ACD066A6B}"/>
-    <hyperlink ref="B53" r:id="rId49" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{209D07D0-08A9-435E-9A9A-906197318F8E}"/>
-    <hyperlink ref="B54" r:id="rId50" display="https://www.fs.fed.us/.ftproot/pub/fmsc/ftp/fvs/docs/gtr/DBSUserGuide.pdf" xr:uid="{3AC97172-A4DB-408E-BCAE-9DE94D5E632B}"/>
-    <hyperlink ref="B12" r:id="rId51" xr:uid="{E47B01FB-34E0-4BD6-AF62-E1A432DF30C6}"/>
-    <hyperlink ref="B23" r:id="rId52" xr:uid="{427640DF-2808-48E2-BC15-3C466EA38D05}"/>
-    <hyperlink ref="B14" r:id="rId53" xr:uid="{A803F91B-DA5A-42EF-AFF5-9AE1F649F675}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{FD67315F-710E-429D-AC3A-EFB0DA00A9CA}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{0F3E2B57-13BB-4C0B-AB0A-F7381F24A750}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{6383CC25-65E8-4D42-AC60-B155A27F7B8A}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{EC1C21FE-116A-4076-851E-41352AF9B3DC}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{CD80295B-3795-4B63-943D-840133CA0420}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{9E4D5A88-AB08-4735-9E18-A880F8A8708D}"/>
+    <hyperlink ref="B9" r:id="rId7" xr:uid="{DF3EDD72-0003-4ABA-8C56-FBC37753692A}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{27E9670D-9882-44DD-ABC9-A63360AC5CFA}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{B9510326-9C39-4D06-9A0C-48F77C49A871}"/>
+    <hyperlink ref="B13" r:id="rId10" xr:uid="{1710F703-FCF8-472C-8FA7-A9AD17F07727}"/>
+    <hyperlink ref="B17" r:id="rId11" xr:uid="{5EC4CA8F-D97F-45C7-8BE0-BD278A494CDB}"/>
+    <hyperlink ref="B19" r:id="rId12" xr:uid="{4B2B86F5-EA91-4974-B56A-A7AE4CA49F90}"/>
+    <hyperlink ref="B20" r:id="rId13" xr:uid="{AFAB471B-7A69-4DAF-8949-6A91B6FFFC07}"/>
+    <hyperlink ref="B18" r:id="rId14" xr:uid="{EC5F9BC2-DE24-49D4-99A1-66790FF8F46E}"/>
+    <hyperlink ref="B21" r:id="rId15" xr:uid="{966CBB8C-2DCA-4E88-8C08-FD91CFA4CF5A}"/>
+    <hyperlink ref="B22" r:id="rId16" xr:uid="{FE12AEA1-A63F-48E8-961C-0C0D3A7680B8}"/>
+    <hyperlink ref="B24" r:id="rId17" xr:uid="{241045C4-0738-4B09-9B7B-0AD3DC3D3AEA}"/>
+    <hyperlink ref="B25" r:id="rId18" xr:uid="{9AD1ECAE-5875-48F8-9801-C085F1AEFAF6}"/>
+    <hyperlink ref="B26" r:id="rId19" xr:uid="{362AFE7D-79AA-40DC-A686-48016BC45904}"/>
+    <hyperlink ref="B27" r:id="rId20" xr:uid="{C19A4BE5-3F02-4770-ADAF-84DD7020B8E4}"/>
+    <hyperlink ref="B28" r:id="rId21" xr:uid="{D37E3734-4FFB-419A-AF79-BC8B51342916}"/>
+    <hyperlink ref="B29" r:id="rId22" xr:uid="{0AED6549-C701-4467-B2CF-D0F12936BCFA}"/>
+    <hyperlink ref="B30" r:id="rId23" xr:uid="{CBD7478E-FA69-48CC-BAB6-4DD1762834BB}"/>
+    <hyperlink ref="B31" r:id="rId24" xr:uid="{38A818A1-6A24-422D-9BA5-FD5006E36165}"/>
+    <hyperlink ref="B33" r:id="rId25" xr:uid="{E1108ECA-32E2-4C4D-8D77-D7C6F6F8B2CC}"/>
+    <hyperlink ref="B34" r:id="rId26" xr:uid="{751C0E1B-99E4-473F-8A79-2BDF7BE4D92E}"/>
+    <hyperlink ref="B35" r:id="rId27" xr:uid="{90EE99D2-FD00-4A8D-95C4-C88D5374FADB}"/>
+    <hyperlink ref="B36" r:id="rId28" xr:uid="{461D5C4F-BE00-48A0-B09F-50D971584017}"/>
+    <hyperlink ref="B37" r:id="rId29" xr:uid="{85E179D0-9627-4E94-BC24-AB71A69C4BD2}"/>
+    <hyperlink ref="B38" r:id="rId30" xr:uid="{5FEA2701-7CC0-477A-A972-7390B3A39071}"/>
+    <hyperlink ref="B39" r:id="rId31" xr:uid="{1D8A030A-02A2-4883-8176-4714B2BC9DEB}"/>
+    <hyperlink ref="B40" r:id="rId32" xr:uid="{0C79D643-E011-4053-8C54-7D6E60A04471}"/>
+    <hyperlink ref="B41" r:id="rId33" xr:uid="{38FDC458-9EC3-492C-BBBA-8F4DAEC13C85}"/>
+    <hyperlink ref="B42" r:id="rId34" xr:uid="{7AC6C4FD-5AE1-4C9D-9E8F-7D69628B469D}"/>
+    <hyperlink ref="B43" r:id="rId35" xr:uid="{9D356455-1C91-485E-9CC7-3D8E5D7554A5}"/>
+    <hyperlink ref="B44" r:id="rId36" xr:uid="{189B0F9F-2F20-44F9-A7F7-81494AB2D9E4}"/>
+    <hyperlink ref="B45" r:id="rId37" xr:uid="{6BBB86E0-F72B-4740-BE1D-D1B5F4E16E45}"/>
+    <hyperlink ref="B32" r:id="rId38" xr:uid="{46745855-CDC8-40D6-9BCB-5F89CA72C370}"/>
+    <hyperlink ref="B12" r:id="rId39" xr:uid="{E47B01FB-34E0-4BD6-AF62-E1A432DF30C6}"/>
+    <hyperlink ref="B23" r:id="rId40" xr:uid="{427640DF-2808-48E2-BC15-3C466EA38D05}"/>
+    <hyperlink ref="B14" r:id="rId41" xr:uid="{A803F91B-DA5A-42EF-AFF5-9AE1F649F675}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -28420,7 +28408,7 @@
         <v>643</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>109</v>
@@ -28434,7 +28422,7 @@
         <v>645</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>109</v>
@@ -28482,7 +28470,7 @@
         <v>109</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -28496,7 +28484,7 @@
         <v>109</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -28751,7 +28739,7 @@
         <v>643</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>109</v>
@@ -28765,7 +28753,7 @@
         <v>645</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>109</v>
@@ -28813,7 +28801,7 @@
         <v>109</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -28827,7 +28815,7 @@
         <v>109</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -29008,44 +28996,44 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="B4" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="B5" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>109</v>
       </c>
       <c r="D5" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="B6" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>124</v>
       </c>
       <c r="D6" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -29053,13 +29041,13 @@
         <v>686</v>
       </c>
       <c r="B7" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>109</v>
       </c>
       <c r="D7" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -29067,13 +29055,13 @@
         <v>688</v>
       </c>
       <c r="B8" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>109</v>
       </c>
       <c r="D8" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -29081,13 +29069,13 @@
         <v>690</v>
       </c>
       <c r="B9" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>109</v>
       </c>
       <c r="D9" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -29095,13 +29083,13 @@
         <v>692</v>
       </c>
       <c r="B10" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>109</v>
       </c>
       <c r="D10" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -29115,7 +29103,7 @@
         <v>109</v>
       </c>
       <c r="D11" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -29123,13 +29111,13 @@
         <v>696</v>
       </c>
       <c r="B12" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>109</v>
       </c>
       <c r="D12" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -29137,13 +29125,13 @@
         <v>698</v>
       </c>
       <c r="B13" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>109</v>
       </c>
       <c r="D13" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -31396,7 +31384,7 @@
         <v>947</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>109</v>
@@ -31463,86 +31451,86 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>90</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>90</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>90</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>90</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>90</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>90</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -31578,7 +31566,7 @@
         <v>967</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>109</v>
@@ -31673,86 +31661,86 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>90</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>90</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>90</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>90</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>90</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>90</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -31788,7 +31776,7 @@
         <v>993</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>109</v>
@@ -31883,86 +31871,86 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>90</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>90</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>90</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>90</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>90</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>90</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -32012,7 +32000,7 @@
         <v>1022</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>90</v>
@@ -32323,13 +32311,13 @@
         <v>1050</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>1895</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>1896</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
@@ -32337,7 +32325,7 @@
         <v>1051</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>109</v>
@@ -33119,13 +33107,13 @@
         <v>1162</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>1897</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>1898</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -33428,7 +33416,7 @@
         <v>109</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -33442,7 +33430,7 @@
         <v>109</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -33456,7 +33444,7 @@
         <v>109</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -33470,7 +33458,7 @@
         <v>109</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -33484,7 +33472,7 @@
         <v>109</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -33498,7 +33486,7 @@
         <v>109</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -34140,13 +34128,13 @@
         <v>131</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>1853</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>1854</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>1855</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -34235,7 +34223,7 @@
     </row>
     <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>151</v>
@@ -34300,7 +34288,7 @@
         <v>109</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -34308,13 +34296,13 @@
         <v>164</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>1858</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>1859</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>24</v>
@@ -34331,7 +34319,7 @@
         <v>109</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -34367,7 +34355,7 @@
         <v>173</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>109</v>
@@ -34612,13 +34600,13 @@
         <v>1316</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>109</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
     </row>
   </sheetData>
@@ -34717,7 +34705,7 @@
         <v>1319</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="C6" t="s">
         <v>109</v>
@@ -34954,7 +34942,7 @@
         <v>1352</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
     </row>
   </sheetData>
@@ -35206,7 +35194,7 @@
         <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -35390,13 +35378,13 @@
         <v>1396</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>124</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -35415,30 +35403,30 @@
     </row>
     <row r="13" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>124</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>124</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
   </sheetData>
@@ -36074,7 +36062,7 @@
         <v>109</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -36292,7 +36280,7 @@
         <v>1515</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>109</v>
@@ -36889,7 +36877,7 @@
         <v>131</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>109</v>
@@ -36979,7 +36967,7 @@
         <v>109</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -37007,12 +36995,12 @@
         <v>109</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>151</v>
@@ -37035,7 +37023,7 @@
         <v>109</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -37091,7 +37079,7 @@
         <v>109</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -37538,7 +37526,7 @@
         <v>109</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -37756,7 +37744,7 @@
         <v>1515</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>109</v>
@@ -38555,7 +38543,7 @@
         <v>109</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -38975,13 +38963,13 @@
         <v>418</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>109</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -38989,13 +38977,13 @@
         <v>419</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>109</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -39003,13 +38991,13 @@
         <v>420</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>109</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -39017,13 +39005,13 @@
         <v>421</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>109</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -39360,13 +39348,13 @@
         <v>418</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>109</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -39374,13 +39362,13 @@
         <v>419</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>109</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -39388,13 +39376,13 @@
         <v>420</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>109</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -39402,13 +39390,13 @@
         <v>421</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>109</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -39492,7 +39480,7 @@
         <v>109</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -39747,7 +39735,7 @@
         <v>1691</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>109</v>
@@ -39907,7 +39895,7 @@
         <v>109</v>
       </c>
       <c r="D17" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="19.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -39915,7 +39903,7 @@
         <v>1714</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>109</v>
@@ -39935,7 +39923,7 @@
         <v>109</v>
       </c>
       <c r="D19" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="19.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -39971,7 +39959,7 @@
         <v>1721</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>109</v>
@@ -40095,7 +40083,7 @@
         <v>1691</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>109</v>
@@ -40263,7 +40251,7 @@
         <v>1714</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>109</v>
@@ -40283,7 +40271,7 @@
         <v>109</v>
       </c>
       <c r="D19" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="19.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -40319,7 +40307,7 @@
         <v>1721</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>109</v>
@@ -40474,7 +40462,7 @@
         <v>1691</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>109</v>
@@ -40676,7 +40664,7 @@
         <v>109</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -40823,7 +40811,7 @@
         <v>1691</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>109</v>
@@ -41025,7 +41013,7 @@
         <v>109</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -41087,7 +41075,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>89</v>
@@ -41157,16 +41145,16 @@
     </row>
     <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>1949</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>1950</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>1951</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -41199,16 +41187,16 @@
     </row>
     <row r="10" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>1951</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>1952</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>1953</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -41426,7 +41414,7 @@
         <v>131</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>109</v>
@@ -41594,7 +41582,7 @@
         <v>164</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>109</v>
@@ -41614,7 +41602,7 @@
         <v>109</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -41650,7 +41638,7 @@
         <v>173</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>109</v>
@@ -41897,7 +41885,7 @@
         <v>131</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>109</v>
@@ -42407,7 +42395,7 @@
         <v>126</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>124</v>
@@ -42477,7 +42465,7 @@
         <v>251</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>124</v>
